--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/deductions/extra_deductions.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/deductions/extra_deductions.xlsx
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8893956670467503</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7938931297709924</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
